--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonProject\CSV2PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2194F8-2A66-450F-BAA5-FE29CE2FFC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2209BA06-1969-4FBC-A5F5-61F8C02D284B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10440" yWindow="3360" windowWidth="10848" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,18 +205,310 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -227,6 +519,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D59A732E-4407-43FD-99BA-4C15B4B7A694}" name="Table1" displayName="Table1" ref="A1:P6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:P6" xr:uid="{D59A732E-4407-43FD-99BA-4C15B4B7A694}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{C9CA5E06-4370-4AF5-B3D2-F6900A9EF031}" name="Sr. No." dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F08105BA-3980-45DA-9F90-4B30F45D1198}" name="ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{40EDF4C9-B5DA-440D-BFF2-F25D08DC14AC}" name="IP" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{07A99D2A-83BE-4C7D-B429-6DCEC9ED8120}" name="URL" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{6756D331-820B-4C4D-A316-9A387A63A6A3}" name="Title" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{BD463509-1CD2-4AC7-8A2C-EC4218499B68}" name="Severity" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{C86D36D9-8B91-4B95-9892-E7AAD45248C7}" name="Open Status" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{28744749-61C3-4037-A3BB-6E62AF1343A9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{6F0D064C-1F0A-413F-B490-C2313CEB85EC}" name="Solution" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{FEC3ECD8-5FB2-4D63-9B8A-49FF097158C6}" name="References" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{8F8A9D97-6476-4DB8-9C72-EC83CEF753E2}" name="Result" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{D31F0DF9-4415-4F39-9AF5-B45F36366D87}" name="Found Date" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{EE80A658-B705-4C2A-BB18-5E0B168C7B8D}" name="First Found Date" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{CCD5CA82-DAE8-4ED0-A940-141ACB97B1AC}" name="Cvss Base" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{0A542B9F-D372-4383-82DA-C12E09129227}" name="Cvss Score" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{6AE856FF-D100-4586-A4C4-1078358A87C1}" name="Cvss Vector" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,297 +753,301 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="255.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="252.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="249.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:16" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>95233190</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
         <v>44998</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="6">
         <v>44998</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>7.5</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>7.5</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>95233193</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="6">
         <v>44998</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="6">
         <v>44998</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>5</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>95233197</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>44998</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <v>44998</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:16" ht="132" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>95233200</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>44998</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>44998</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>95233203</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="6">
         <v>44998</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="6">
         <v>44998</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -740,5 +1061,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>